--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\453_Tambov_PraxAir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Vars" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>Structs</t>
   </si>
@@ -295,12 +290,15 @@
   </si>
   <si>
     <t>oxi2NE_1_2TT_2</t>
+  </si>
+  <si>
+    <t>PLCName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -824,24 +822,24 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -923,7 +921,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,7 +956,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,7 +1168,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,6 +1382,10 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="H6" t="s">
         <v>72</v>
       </c>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Structs</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>PLCName</t>
+  </si>
+  <si>
+    <t>PLC_Sha_2</t>
+  </si>
+  <si>
+    <t>StringTable_ID</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1174,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1391,9 @@
       <c r="E6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="H6" t="s">
         <v>72</v>
       </c>
@@ -1417,6 +1425,12 @@
       </c>
       <c r="C7" s="1">
         <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>73</v>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\WeintekParameters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Vars" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>Structs</t>
   </si>
@@ -28,9 +33,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>LW</t>
   </si>
   <si>
@@ -49,15 +51,9 @@
     <t>s_En_LLAlarm_Check</t>
   </si>
   <si>
-    <t>lb</t>
-  </si>
-  <si>
     <t>s_En_HLAlarm_Check</t>
   </si>
   <si>
-    <t>Lb</t>
-  </si>
-  <si>
     <t>s_En_LLWarning_Check</t>
   </si>
   <si>
@@ -70,33 +66,18 @@
     <t>s_En_HLAlarm_IfRange</t>
   </si>
   <si>
-    <t>Bool</t>
-  </si>
-  <si>
     <t>s_En_SensorAlarm</t>
   </si>
   <si>
-    <t>BOOL</t>
-  </si>
-  <si>
     <t>s_Timer_SensorError</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
     <t>s_Timer_LLAlarm</t>
   </si>
   <si>
-    <t>Word</t>
-  </si>
-  <si>
     <t>s_Timer_HLAlarm</t>
   </si>
   <si>
-    <t>lw</t>
-  </si>
-  <si>
     <t>s_Low_Level_Alarm</t>
   </si>
   <si>
@@ -112,99 +93,9 @@
     <t>s_Param_LowLim</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>s_Param_HighLim</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>Sensor.s_DoAlrShtdwn</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Неопределенный</t>
-  </si>
-  <si>
-    <t>Sensor.s_En_LLAlarm_Check</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Sensor.s_En_HLAlarm_Check</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>Sensor.s_En_LLWarning_Check</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>Sensor.s_En_HLWarning_Check</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>Sensor.s_En_LLAlarm_IfRange</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>Sensor.s_En_HLAlarm_IfRange</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>Sensor.s_En_SensorAlarm</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>Sensor.s_Timer_SensorError</t>
-  </si>
-  <si>
-    <t>Sensor.s_Timer_LLAlarm</t>
-  </si>
-  <si>
-    <t>Sensor.s_Timer_HLAlarm</t>
-  </si>
-  <si>
-    <t>Sensor.s_Low_Level_Alarm</t>
-  </si>
-  <si>
-    <t>Sensor.s_High_Level_Alarm</t>
-  </si>
-  <si>
-    <t>Sensor.s_Low_Level_Warning</t>
-  </si>
-  <si>
-    <t>Sensor.s_High_Level_Warning</t>
-  </si>
-  <si>
-    <t>Sensor.s_Param_LowLim</t>
-  </si>
-  <si>
-    <t>Sensor.s_Param_HighLim</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
     <t>VarPrefix</t>
   </si>
   <si>
@@ -299,12 +190,84 @@
   </si>
   <si>
     <t>StringTable_ID</t>
+  </si>
+  <si>
+    <t>Carbo-AG-2</t>
+  </si>
+  <si>
+    <t>Carbo-AG-3</t>
+  </si>
+  <si>
+    <t>oxi-AG-1-1</t>
+  </si>
+  <si>
+    <t>carbo-AG-1-1</t>
+  </si>
+  <si>
+    <t>oxi-AG-4</t>
+  </si>
+  <si>
+    <t>oxi-AG-5</t>
+  </si>
+  <si>
+    <t>oxi-AG-6</t>
+  </si>
+  <si>
+    <t>oxi-AG-7</t>
+  </si>
+  <si>
+    <t>У1-PT-1</t>
+  </si>
+  <si>
+    <t>5PT-1</t>
+  </si>
+  <si>
+    <t>2PT-1</t>
+  </si>
+  <si>
+    <t>2PT-2</t>
+  </si>
+  <si>
+    <t>3TT-1</t>
+  </si>
+  <si>
+    <t>3TT-2</t>
+  </si>
+  <si>
+    <t>T1-3IK-1</t>
+  </si>
+  <si>
+    <t>T1-3IK-2</t>
+  </si>
+  <si>
+    <t>T2-3IK-1</t>
+  </si>
+  <si>
+    <t>T2-3IK-2</t>
+  </si>
+  <si>
+    <t>1TT-2</t>
+  </si>
+  <si>
+    <t>2TT-2</t>
+  </si>
+  <si>
+    <t>1PT-1</t>
+  </si>
+  <si>
+    <t>1PT-2</t>
+  </si>
+  <si>
+    <t>3PT-2</t>
+  </si>
+  <si>
+    <t>3PT-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -828,24 +791,24 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -927,7 +890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,7 +925,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1151,7 @@
     <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
         <v>500</v>
@@ -1208,643 +1171,388 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>500</v>
       </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I25" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Vars" sheetId="2" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>PLCName</t>
   </si>
   <si>
-    <t>PLC_Sha_2</t>
-  </si>
-  <si>
     <t>StringTable_ID</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>oxi-AG-7</t>
   </si>
   <si>
-    <t>У1-PT-1</t>
-  </si>
-  <si>
     <t>5PT-1</t>
   </si>
   <si>
@@ -262,13 +256,19 @@
   </si>
   <si>
     <t>3PT-3</t>
+  </si>
+  <si>
+    <t>3PT-1</t>
+  </si>
+  <si>
+    <t>PLC_ShA2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,8 +422,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,10 +799,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1134,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,11 +1206,14 @@
       <c r="F2" s="1">
         <v>500</v>
       </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1213,11 +1232,14 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1236,11 +1258,14 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1259,11 +1284,14 @@
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1280,13 +1308,16 @@
         <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1300,16 +1331,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1322,11 +1356,14 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1339,11 +1376,14 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1356,11 +1396,14 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>77</v>
+      <c r="I10" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,11 +1416,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
+      <c r="G11" s="3">
+        <v>9</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>78</v>
+      <c r="I11" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1390,11 +1436,14 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>65</v>
+      <c r="I12" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1407,11 +1456,14 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
+      <c r="G13" s="3">
+        <v>11</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>79</v>
+      <c r="I13" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,11 +1476,14 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
+      <c r="G14" s="3">
+        <v>12</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>80</v>
+      <c r="I14" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1441,11 +1496,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
+      <c r="G15" s="3">
+        <v>13</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>66</v>
+      <c r="I15" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1458,11 +1516,14 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
+      <c r="G16" s="3">
+        <v>14</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>67</v>
+      <c r="I16" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1475,11 +1536,14 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>68</v>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1492,67 +1556,567 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
+      <c r="G18" s="3">
+        <v>16</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>69</v>
+      <c r="I18" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>17</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>70</v>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>18</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>71</v>
+      <c r="I20" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>19</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>72</v>
+      <c r="I21" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>20</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>73</v>
+      <c r="I22" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>21</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>74</v>
+      <c r="I23" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>22</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>75</v>
+      <c r="I24" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>23</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="3">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>25</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>26</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="3">
+        <v>27</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="3">
+        <v>28</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="3">
+        <v>29</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="3">
+        <v>30</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="3">
+        <v>31</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="3">
+        <v>32</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
+        <v>33</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="3">
+        <v>34</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <v>35</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="3">
+        <v>36</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="3">
+        <v>37</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="3">
+        <v>38</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="3">
+        <v>39</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="3">
+        <v>40</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="3">
+        <v>41</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="3">
+        <v>42</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="3">
+        <v>43</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="3">
+        <v>44</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="3">
+        <v>45</v>
+      </c>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="3">
+        <v>46</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="3">
+        <v>47</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="3">
+        <v>56</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="3">
+        <v>57</v>
+      </c>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="3">
+        <v>58</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" s="3">
+        <v>59</v>
+      </c>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="3">
+        <v>60</v>
+      </c>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63" s="3">
+        <v>61</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="3">
+        <v>62</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="3">
+        <v>63</v>
+      </c>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="3">
+        <v>64</v>
+      </c>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="3">
+        <v>65</v>
+      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="3">
+        <v>66</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="3">
+        <v>67</v>
+      </c>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="3">
+        <v>68</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="3">
+        <v>69</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="3">
+        <v>70</v>
+      </c>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="3">
+        <v>71</v>
+      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="3">
         <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="3">
+        <v>80</v>
+      </c>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="3">
+        <v>81</v>
+      </c>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G84" s="3">
+        <v>82</v>
+      </c>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G85" s="3">
+        <v>83</v>
+      </c>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G86" s="3">
+        <v>84</v>
+      </c>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G87" s="3">
+        <v>85</v>
+      </c>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G88" s="3">
+        <v>86</v>
+      </c>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G89" s="3">
+        <v>87</v>
+      </c>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G90" s="3">
+        <v>88</v>
+      </c>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G91" s="3">
+        <v>89</v>
+      </c>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G92" s="3">
+        <v>90</v>
+      </c>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G93" s="3">
+        <v>91</v>
+      </c>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G94" s="3">
+        <v>92</v>
+      </c>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G95" s="3">
+        <v>93</v>
+      </c>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G96" s="3">
+        <v>94</v>
+      </c>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G97" s="3">
+        <v>95</v>
+      </c>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G98" s="3">
+        <v>96</v>
+      </c>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G99" s="3">
+        <v>97</v>
+      </c>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G100" s="3">
+        <v>98</v>
+      </c>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G101" s="3">
+        <v>99</v>
+      </c>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G103" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G104" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G105" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G106" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G107" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G108" s="3">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
